--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MultipleBroswers\TestCasesinExcell\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A65DE1-D9F5-40FB-8E1B-6F41156FF6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606978E-F084-492B-9E3A-B71FB38CD053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
     <sheet name="headingTags" sheetId="3" r:id="rId3"/>
+    <sheet name="image" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>Description</t>
   </si>
@@ -111,13 +112,26 @@
   </si>
   <si>
     <t>h2 tags is  [Work with Us, Solutions, Events, Webinars &amp; Customer Success Stories]</t>
+  </si>
+  <si>
+    <t>Verify that click sitemap link and validate og:image</t>
+  </si>
+  <si>
+    <t>og:image</t>
+  </si>
+  <si>
+    <t>//meta[@property='og:image']</t>
+  </si>
+  <si>
+    <t>Total no of og:image Available: 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +184,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +249,146 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -259,7 +413,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -291,6 +445,20 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,12 +748,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,17 +906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F83FC-F7F6-4BFE-9D40-388F70D8B9C4}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,4 +1059,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259FF3A-08E1-4C3C-AC35-FD0BFA5DFBA2}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="36">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MultipleBroswers\TestCasesinExcell\Amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606978E-F084-492B-9E3A-B71FB38CD053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7751A97-3F5D-49A0-8971-A69453E72693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
-    <sheet name="headingTags" sheetId="3" r:id="rId3"/>
-    <sheet name="image" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="headingtag" sheetId="3" r:id="rId3"/>
+    <sheet name="img" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="144">
   <si>
     <t>Description</t>
   </si>
@@ -57,6 +57,9 @@
     <t>Scenario 1</t>
   </si>
   <si>
+    <t>Validate Sign In vGro appian application</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
@@ -84,46 +87,379 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>Verify that click sitemap link and validate href status</t>
-  </si>
-  <si>
-    <t>Verify that click sitemap link and validate h1 tags</t>
+    <t>Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/gp/help/customer/display.html/ref=icp_flyout?ie=UTF8&amp;nodeId=202085910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/agribusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/automotive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/business-products-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/consumer-products-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/e-procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/financial-services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/food-service-hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/industrials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/information-technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/power-and-utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/real-estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/retail-distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/telecom-media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/transportation-logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/government</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/healthcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/nonprofit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/small-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/work-with-us/commercial/startups</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://sell.amazon.com/programs/amazon-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/social-responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/streamline-procurement-process/integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/growth-acceleration-solutions/fill-operational-gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/growth-acceleration-solutions/integrate-across-your-organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/spend-intelligence-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/spend-intelligence-solutions/scale-buying-through-compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/reduce-costs/payment-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/add-users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/purchasing-optimization/savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions#industryso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/office-supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/it-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/breakroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/janitorial-sanitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/mro-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/restaurant-supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/professional-medical-licensed-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/pro-beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/wholesale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/selection/bulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://play.google.com/store/apps/details?id=com.amazon.mShop.android.business.shopping&amp;hl=en_SG&amp;gl=US</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://apps.apple.com/us/app/amazon-business/id1498197033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/mobile-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success-stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/release-notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/newsletters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/training-videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/events/reshape-virtual/on-demand?ref_=b2b_reg_rs22_a_p_web_nav_20211108</t>
+  </si>
+  <si>
+    <t>Contact sales - https://business.amazon.com/en/contact-us</t>
+  </si>
+  <si>
+    <t>Create a free account - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=34375576084935947610874414115978206174&amp;abreg_ecid=34375576084935947610874414115978206174&amp;transactid=343755760849359476108744141159782061742022-12-26T11%3A25%3A49.444Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/contact-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=34375576084935947610874414115978206174&amp;abreg_ecid=34375576084935947610874414115978206174&amp;transactid=343755760849359476108744141159782061742022-12-26T11%3A25%3A49.444Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/shipping-delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/the-office-tex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/sugar-mountain</t>
+  </si>
+  <si>
+    <t>Meet our 2022 Small Business Grants Recipients &gt; - https://business.amazon.com/en/discover-more/blog/small-business-grants-2022?ref_=ab_reg_notag_bannerbacom</t>
+  </si>
+  <si>
+    <t>Learn more - https://business.amazon.com/en/find-solutions/simplify-buying/selection/bulk</t>
+  </si>
+  <si>
+    <t>Discover how - https://business.amazon.com/en/work-with-us/enterprise?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t>Explore how - https://business.amazon.com/en/work-with-us/small-business?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t>Uncover how - https://business.amazon.com/en/work-with-us/government/here-to-help-the-public-sector?ref_=ab_reg_notag_bfn_mtyp_ab_reg_dsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/assets/global/documents/reports/Amazon-Business-Research-Report-2022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/digital-fundraising-donation-driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/mary-s-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/why-exxonmobil-s-procurement-team-was-prepared-for-business-cont</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/city-of-baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/newbalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/citi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/nc-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/blog/union-pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/vacasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/saline-area-schools</t>
+  </si>
+  <si>
+    <t>Contact sales - https://business.amazon.com/en/smartbusinessbuying/contact-us</t>
+  </si>
+  <si>
+    <t>The Amazon Business blog - https://business.amazon.com/en/discover-more/blog</t>
+  </si>
+  <si>
+    <t>Customer success stories - https://business.amazon.com/en/discover-more/customer-success</t>
+  </si>
+  <si>
+    <t>Join our team - https://business.amazon.com/en/join-our-team</t>
+  </si>
+  <si>
+    <t>Release notes - https://business.amazon.com/en/discover-more/release-notes</t>
+  </si>
+  <si>
+    <t>Amazon Business Partner Network - https://business.amazon.com/en/partners</t>
+  </si>
+  <si>
+    <t>Privacy notice - https://www.amazon.com/gp/help/customer/display.html?ie=UTF8&amp;nodeId=468496&amp;ref_=b2b_mcs_footer</t>
+  </si>
+  <si>
+    <t>Covid-19 - https://business.amazon.com/en/work-with-us/healthcare/covid-19-supplies</t>
+  </si>
+  <si>
+    <t>Sitemap - https://business.amazon.com/en/sitemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.es/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.co.jp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.facebook.com/AmazonBusiness/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://twitter.com/AmazonBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.linkedin.com/company/amazon-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.youtube.com/channel/UCCirH37GCSvr9NFF62-GEaA</t>
+  </si>
+  <si>
+    <t>Status code 200 is 208, Incorrect codes is 0</t>
+  </si>
+  <si>
+    <t>Heading tags</t>
   </si>
   <si>
     <t>h1</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>heading tags</t>
+    <t>h1 tags is  [Sitemap]</t>
   </si>
   <si>
     <t>h2</t>
   </si>
   <si>
+    <t>og:image</t>
+  </si>
+  <si>
+    <t>//meta[@property='og:image']</t>
+  </si>
+  <si>
     <t>Not Executed</t>
   </si>
   <si>
-    <t>h1 tags is  [Sitemap]</t>
+    <t>Total no of og:image Available: 1</t>
   </si>
   <si>
     <t>h2 tags is  [Work with Us, Solutions, Events, Webinars &amp; Customer Success Stories]</t>
-  </si>
-  <si>
-    <t>Verify that click sitemap link and validate og:image</t>
-  </si>
-  <si>
-    <t>og:image</t>
-  </si>
-  <si>
-    <t>//meta[@property='og:image']</t>
-  </si>
-  <si>
-    <t>Total no of og:image Available: 1</t>
   </si>
 </sst>
 </file>
@@ -184,7 +520,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="78">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,27 +554,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,6 +705,176 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -413,7 +924,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -445,20 +956,38 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,20 +1272,20 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="62.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="6" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -784,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -799,87 +1328,87 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -890,36 +1419,1713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="90.26953125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>94</v>
+      </c>
+      <c r="B150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>95</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>95</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>78</v>
+      </c>
+      <c r="B155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B156">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>100</v>
+      </c>
+      <c r="B158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>104</v>
+      </c>
+      <c r="B162">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>108</v>
+      </c>
+      <c r="B166">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>109</v>
+      </c>
+      <c r="B167">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>95</v>
+      </c>
+      <c r="B168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>111</v>
+      </c>
+      <c r="B170">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>113</v>
+      </c>
+      <c r="B172">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>114</v>
+      </c>
+      <c r="B174">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B175">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>117</v>
+      </c>
+      <c r="B177">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>118</v>
+      </c>
+      <c r="B178">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>119</v>
+      </c>
+      <c r="B179">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>121</v>
+      </c>
+      <c r="B181">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>122</v>
+      </c>
+      <c r="B183">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>123</v>
+      </c>
+      <c r="B184">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>124</v>
+      </c>
+      <c r="B185">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>128</v>
+      </c>
+      <c r="B189">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>129</v>
+      </c>
+      <c r="B190">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>130</v>
+      </c>
+      <c r="B197">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>131</v>
+      </c>
+      <c r="B198">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>132</v>
+      </c>
+      <c r="B199">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>76</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>77</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>130</v>
+      </c>
+      <c r="B203">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>131</v>
+      </c>
+      <c r="B204">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>132</v>
+      </c>
+      <c r="B205">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>133</v>
+      </c>
+      <c r="B206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F83FC-F7F6-4BFE-9D40-388F70D8B9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFC348-A7B7-481F-97A2-90255355BC58}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -947,13 +3153,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -962,98 +3168,98 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s" s="49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="50">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s" s="53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s" s="54">
         <v>16</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1062,23 +3268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259FF3A-08E1-4C3C-AC35-FD0BFA5DFBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD2E55-F3F8-4B67-BA34-2785A8DD80A7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="49.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1106,13 +3313,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1121,84 +3328,84 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="31">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="32">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s" s="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="33">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="34">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s" s="30">
         <v>16</v>
-      </c>
-      <c r="E8" t="s" s="36">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="145">
   <si>
     <t>Description</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>h2 tags is  [Work with Us, Solutions, Events, Webinars &amp; Customer Success Stories]</t>
+  </si>
+  <si>
+    <t>Locator is not valid</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="78">
+  <fills count="150">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +898,366 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -924,7 +1287,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -988,6 +1351,42 @@
     <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1315,7 +1714,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s" s="90">
         <v>5</v>
       </c>
     </row>
@@ -1330,8 +1729,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
+      <c r="E3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1347,8 +1746,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
+      <c r="E4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1364,8 +1763,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1379,8 +1778,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
+      <c r="E6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1394,10 +1793,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1407,8 +1806,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
+      <c r="E8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3554,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="47">
+      <c r="E2" t="s" s="75">
         <v>5</v>
       </c>
     </row>
@@ -3170,7 +3569,7 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="48">
+      <c r="E3" t="s" s="76">
         <v>18</v>
       </c>
     </row>
@@ -3187,7 +3586,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="49">
+      <c r="E4" t="s" s="77">
         <v>18</v>
       </c>
     </row>
@@ -3204,7 +3603,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="50">
+      <c r="E5" t="s" s="78">
         <v>8</v>
       </c>
     </row>
@@ -3219,7 +3618,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="51">
+      <c r="E6" t="s" s="79">
         <v>18</v>
       </c>
     </row>
@@ -3233,7 +3632,7 @@
       <c r="D7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s" s="52">
+      <c r="E7" t="s" s="80">
         <v>18</v>
       </c>
     </row>
@@ -3247,7 +3646,7 @@
       <c r="D8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" t="s" s="53">
+      <c r="E8" t="s" s="81">
         <v>18</v>
       </c>
     </row>
@@ -3258,7 +3657,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="54">
+      <c r="E9" t="s" s="82">
         <v>16</v>
       </c>
     </row>
@@ -3315,7 +3714,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="24">
+      <c r="E2" t="s" s="83">
         <v>5</v>
       </c>
     </row>
@@ -3330,7 +3729,7 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="25">
+      <c r="E3" t="s" s="84">
         <v>18</v>
       </c>
     </row>
@@ -3347,7 +3746,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="26">
+      <c r="E4" t="s" s="85">
         <v>18</v>
       </c>
     </row>
@@ -3364,7 +3763,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="27">
+      <c r="E5" t="s" s="86">
         <v>8</v>
       </c>
     </row>
@@ -3379,7 +3778,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="28">
+      <c r="E6" t="s" s="87">
         <v>18</v>
       </c>
     </row>
@@ -3393,7 +3792,7 @@
       <c r="D7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" t="s" s="29">
+      <c r="E7" t="s" s="88">
         <v>18</v>
       </c>
     </row>
@@ -3404,7 +3803,7 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="30">
+      <c r="E8" t="s" s="89">
         <v>16</v>
       </c>
     </row>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -463,6 +463,474 @@
   </si>
   <si>
     <t>Locator is not valid</t>
+  </si>
+  <si>
+    <t>Sign in - https://www.amazon.com/business/register/welcome</t>
+  </si>
+  <si>
+    <t>Create a free account - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=12810433117985646382811934162799566938&amp;abreg_ecid=12810433117985646382811934162799566938&amp;transactid=128104331179856463828119341627995669382022-12-26T12%3A24%3A07.492Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=12810433117985646382811934162799566938&amp;abreg_ecid=12810433117985646382811934162799566938&amp;transactid=128104331179856463828119341627995669382022-12-26T12%3A24%3A07.492Z</t>
+  </si>
+  <si>
+    <t>Register - https://business.amazon.com/en/register?ecid=12810433117985646382811934162799566938&amp;abreg_ecid=12810433117985646382811934162799566938</t>
+  </si>
+  <si>
+    <t>Sellers - https://business.amazon.com/en/sell</t>
+  </si>
+  <si>
+    <t>Mobile App - https://business.amazon.com/en/find-solutions/mobile-app</t>
+  </si>
+  <si>
+    <t>Release Notes - https://business.amazon.com/en/discover-more/release-notes</t>
+  </si>
+  <si>
+    <t>Amazon Business Blog - https://business.amazon.com/en/discover-more/blog</t>
+  </si>
+  <si>
+    <t>Newsletters - https://business.amazon.com/en/discover-more/newsletters</t>
+  </si>
+  <si>
+    <t>Enterprise - https://business.amazon.com/en/discover-more/newsletters/enterprise</t>
+  </si>
+  <si>
+    <t>Small Businesses - https://business.amazon.com/en/discover-more/newsletters/small-business</t>
+  </si>
+  <si>
+    <t>Social Responsibility - https://business.amazon.com/en/social-responsibility</t>
+  </si>
+  <si>
+    <t>Buy Local - https://business.amazon.com/en/social-responsibility/buy-local</t>
+  </si>
+  <si>
+    <t>Supplier Diversity - https://business.amazon.com/en/social-responsibility/supplier-diversity</t>
+  </si>
+  <si>
+    <t>Sustainability - https://business.amazon.com/en/social-responsibility/sustainability</t>
+  </si>
+  <si>
+    <t>Commercial - https://business.amazon.com/en/work-with-us/commercial</t>
+  </si>
+  <si>
+    <t>Agribusiness - https://business.amazon.com/en/work-with-us/commercial/agribusiness</t>
+  </si>
+  <si>
+    <t>Automotive - https://business.amazon.com/en/work-with-us/commercial/automotive</t>
+  </si>
+  <si>
+    <t>Construction - https://business.amazon.com/en/work-with-us/commercial/construction</t>
+  </si>
+  <si>
+    <t>Energy - https://business.amazon.com/en/work-with-us/commercial/energy</t>
+  </si>
+  <si>
+    <t>Financial Services - https://business.amazon.com/en/work-with-us/commercial/financial-services</t>
+  </si>
+  <si>
+    <t>Food Service &amp; Hospitality - https://business.amazon.com/en/work-with-us/commercial/food-service-hospitality</t>
+  </si>
+  <si>
+    <t>Industrials - https://business.amazon.com/en/work-with-us/commercial/industrials</t>
+  </si>
+  <si>
+    <t>Information Technology - https://business.amazon.com/en/work-with-us/commercial/information-technology</t>
+  </si>
+  <si>
+    <t>Real Estate - https://business.amazon.com/en/work-with-us/commercial/real-estate</t>
+  </si>
+  <si>
+    <t>Retail &amp; Distribution - https://business.amazon.com/en/work-with-us/commercial/retail-distribution</t>
+  </si>
+  <si>
+    <t>Startups - https://business.amazon.com/en/work-with-us/commercial/startups</t>
+  </si>
+  <si>
+    <t>Telecommunications &amp; Media - https://business.amazon.com/en/work-with-us/commercial/media-telecom</t>
+  </si>
+  <si>
+    <t>Transportation &amp; Logistics - https://business.amazon.com/en/work-with-us/commercial/transportation-logistics</t>
+  </si>
+  <si>
+    <t>Healthcare - https://business.amazon.com/en/work-with-us/healthcare</t>
+  </si>
+  <si>
+    <t>Acute Care - https://business.amazon.com/en/work-with-us/healthcare/acute-care</t>
+  </si>
+  <si>
+    <t>Behavioral Care - https://business.amazon.com/en/work-with-us/healthcare/behavioral-care</t>
+  </si>
+  <si>
+    <t>Long-term Care - https://business.amazon.com/en/work-with-us/healthcare/long-term-care</t>
+  </si>
+  <si>
+    <t>Outpatient Care - https://business.amazon.com/en/work-with-us/healthcare/outpatient-care</t>
+  </si>
+  <si>
+    <t>Specialty Care - https://business.amazon.com/en/work-with-us/healthcare/specialty-care</t>
+  </si>
+  <si>
+    <t>Long-Term Care E-Book - https://business.amazon.com/en/work-with-us/healthcare/long-term-care/ebook-2021</t>
+  </si>
+  <si>
+    <t>Model for Healthcare Procurement E-Book - https://business.amazon.com/en/work-with-us/healthcare/model-for-healthcare-procurement-ebook</t>
+  </si>
+  <si>
+    <t>Education - https://business.amazon.com/en/work-with-us/education</t>
+  </si>
+  <si>
+    <t>Early Childhood Education - https://business.amazon.com/en/work-with-us/education/early-childhood-education</t>
+  </si>
+  <si>
+    <t>Higher Education - https://business.amazon.com/en/work-with-us/education/higher-education</t>
+  </si>
+  <si>
+    <t>Kindergarden through 12th - https://business.amazon.com/en/work-with-us/education/k-12</t>
+  </si>
+  <si>
+    <t>Distance Learning - https://business.amazon.com/en/work-with-us/education/distance-learning</t>
+  </si>
+  <si>
+    <t>Small Business - https://business.amazon.com/en/work-with-us/small-business</t>
+  </si>
+  <si>
+    <t>Enterprise - https://business.amazon.com/en/work-with-us/enterprise</t>
+  </si>
+  <si>
+    <t>Nonprofit - https://business.amazon.com/en/work-with-us/nonprofit</t>
+  </si>
+  <si>
+    <t>Government - https://business.amazon.com/en/work-with-us/government</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/about-prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/business-prime-for-small-businesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/differences-between-prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/benefits/instant-customer-feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/benefits/optimal-deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/benefits/return-on-investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/business-prime/benefits/spend-visibility/dashboards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/manage-your-account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/account-authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/account-switching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/single-sign-on-sso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/manage-purchasing/workflow/drive-compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/tax-exempt-purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/reduce-costs/financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/growth-acceleration-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/replenishment-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/simplify-buying/shipping-delivery/improve-delivery-experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/punchout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/find-solutions/punchout/3p-punchout-request</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/ai-analytics-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/business-continuity-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/cost-optimization-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/ent-solution-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/financial-services-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/forrester-tei-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/forrester-trends-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/getting-started-with-amazon-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/healthcare-business-continuity-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/intelligent-procurement-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/mit-sloan-management-review-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/npo-solution-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/smb-solution-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/spend-analysis-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/utilities-webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/5-tips-accelerate-your-business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/cost-savings-commercial-sector-uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/cost-savings-public-sector-nc-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/customer-panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/intelligent-procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/events/reshape-2021/save-time-money-public-sector-marys-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/aldevra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/always-best-care</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/berkeley-county-schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/chefs-toys</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/chevron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/click-here-2-shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/cortland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/cpo-commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/csat-solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/domesticshelters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/envision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/exxonmobil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/five-star-senior-living</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/franklin-creative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/glendale-unified-school-district</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/granite-school-district</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/hanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/intel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/johns-hopkins-university</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/jukin-media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/lakota-local-schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/lippert-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/olive-grove-charter-school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/pacific-northwest-business-products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/quickbooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/red-river-brewing-company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/seattle-childrens-hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/shelby-county-schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/state-of-oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/state-of-utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/the-third-floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/toys-for-kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/tracy-unified-school-district</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/university-of-washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/varidesk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/discover-more/customer-success/visions-in-education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/ariba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/awardco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/beneering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/buyerquest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/concur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/coupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/cross-country-consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/emburse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/giftandgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/infor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/ivalua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/nrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/onmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/onventis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/planergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/precoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/procuredesk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/quickbooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/reactornet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/skyward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/spendbridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/suppliergateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/teampay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/tofino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://business.amazon.com/en/partners/solutions/zycus</t>
+  </si>
+  <si>
+    <t>Status code 200 is 360, Incorrect codes is 0</t>
   </si>
 </sst>
 </file>
@@ -523,7 +991,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="150">
+  <fills count="162">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,6 +1726,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -1287,7 +1815,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1387,6 +1915,12 @@
     <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1729,8 +2263,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>141</v>
+      <c r="E3" t="s" s="91">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1746,8 +2280,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>141</v>
+      <c r="E4" t="s" s="92">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1763,8 +2297,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>141</v>
+      <c r="E5" t="s" s="93">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1778,8 +2312,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>141</v>
+      <c r="E6" t="s" s="94">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,10 +2327,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
+        <v>300</v>
+      </c>
+      <c r="E7" t="s" s="95">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1806,8 +2340,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>141</v>
+      <c r="E8" t="s" s="96">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1829,1668 +2363,2884 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="90.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="B3" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>63</v>
       </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>64</v>
       </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>65</v>
       </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>66</v>
       </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>70</v>
       </c>
-      <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>71</v>
       </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>72</v>
       </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>73</v>
       </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>75</v>
       </c>
-      <c r="B59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="B60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B61">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>78</v>
       </c>
-      <c r="B62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>79</v>
       </c>
-      <c r="B63">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>80</v>
       </c>
-      <c r="B64">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="B65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>82</v>
       </c>
-      <c r="B66">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>83</v>
       </c>
-      <c r="B67">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>84</v>
       </c>
-      <c r="B68">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>85</v>
       </c>
-      <c r="B69">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>86</v>
       </c>
-      <c r="B70">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>87</v>
       </c>
-      <c r="B71">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>88</v>
       </c>
-      <c r="B72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="B73" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="B74">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>24</v>
       </c>
-      <c r="B76">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>25</v>
       </c>
-      <c r="B77">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>26</v>
       </c>
-      <c r="B78">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>27</v>
       </c>
-      <c r="B79">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>28</v>
       </c>
-      <c r="B80">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
         <v>29</v>
       </c>
-      <c r="B81">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
         <v>31</v>
       </c>
-      <c r="B82">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
         <v>32</v>
       </c>
-      <c r="B83">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>33</v>
       </c>
-      <c r="B84">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>34</v>
       </c>
-      <c r="B85">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>35</v>
       </c>
-      <c r="B86">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>36</v>
       </c>
-      <c r="B87">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>37</v>
       </c>
-      <c r="B88">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
         <v>38</v>
       </c>
-      <c r="B89">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B89" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>39</v>
       </c>
-      <c r="B90">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>40</v>
       </c>
-      <c r="B91">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B91" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B92" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
         <v>41</v>
       </c>
-      <c r="B93">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" t="s">
         <v>42</v>
       </c>
-      <c r="B94">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
         <v>43</v>
       </c>
-      <c r="B95">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="s">
         <v>44</v>
       </c>
-      <c r="B96">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" t="s">
         <v>45</v>
       </c>
-      <c r="B97">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
         <v>46</v>
       </c>
-      <c r="B98">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="s">
         <v>47</v>
       </c>
-      <c r="B99">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B99" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" t="s">
         <v>48</v>
       </c>
-      <c r="B100">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" t="s">
         <v>49</v>
       </c>
-      <c r="B101">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
         <v>50</v>
       </c>
-      <c r="B102">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B102" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
         <v>50</v>
       </c>
-      <c r="B103">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B103" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
         <v>51</v>
       </c>
-      <c r="B104">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B104" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
         <v>52</v>
       </c>
-      <c r="B105">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="s">
         <v>53</v>
       </c>
-      <c r="B106">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B106" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="s">
         <v>54</v>
       </c>
-      <c r="B107">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B107" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
         <v>55</v>
       </c>
-      <c r="B108">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" t="s">
         <v>56</v>
       </c>
-      <c r="B109">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" t="s">
         <v>57</v>
       </c>
-      <c r="B110">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="s">
         <v>58</v>
       </c>
-      <c r="B111">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B111" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
         <v>59</v>
       </c>
-      <c r="B112">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B112" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
         <v>60</v>
       </c>
-      <c r="B113">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" t="s">
         <v>61</v>
       </c>
-      <c r="B114">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
         <v>62</v>
       </c>
-      <c r="B115">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B115" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
         <v>63</v>
       </c>
-      <c r="B116">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B116" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" t="s">
         <v>64</v>
       </c>
-      <c r="B117">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B117" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="s">
         <v>65</v>
       </c>
-      <c r="B118">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B118" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
         <v>66</v>
       </c>
-      <c r="B119">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B119" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
         <v>67</v>
       </c>
-      <c r="B120">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B120" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="s">
         <v>68</v>
       </c>
-      <c r="B121">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B121" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" t="s">
         <v>69</v>
       </c>
-      <c r="B122">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="s">
         <v>70</v>
       </c>
-      <c r="B123">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" t="s">
         <v>71</v>
       </c>
-      <c r="B124">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B124" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" t="s">
         <v>72</v>
       </c>
-      <c r="B125">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" t="s">
         <v>73</v>
       </c>
-      <c r="B126">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" t="s">
         <v>74</v>
       </c>
-      <c r="B127">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" t="s">
         <v>75</v>
       </c>
-      <c r="B128">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" t="s">
         <v>76</v>
       </c>
-      <c r="B129">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" t="s">
         <v>77</v>
       </c>
-      <c r="B130">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" t="s">
         <v>78</v>
       </c>
-      <c r="B131">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" t="s">
         <v>79</v>
       </c>
-      <c r="B132">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" t="s">
         <v>80</v>
       </c>
-      <c r="B133">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" t="s">
         <v>81</v>
       </c>
-      <c r="B134">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" t="s">
         <v>82</v>
       </c>
-      <c r="B135">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" t="s">
         <v>83</v>
       </c>
-      <c r="B136">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" t="s">
         <v>84</v>
       </c>
-      <c r="B137">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" t="s">
         <v>85</v>
       </c>
-      <c r="B138">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="s">
         <v>86</v>
       </c>
-      <c r="B139">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B139" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="s">
         <v>87</v>
       </c>
-      <c r="B140">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B140" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" t="s">
         <v>90</v>
       </c>
-      <c r="B141">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B141" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" t="s">
-        <v>91</v>
-      </c>
-      <c r="B142">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="B142" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" t="s">
         <v>30</v>
       </c>
-      <c r="B143">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" t="s">
         <v>92</v>
       </c>
-      <c r="B144">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B144" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" t="s">
         <v>75</v>
       </c>
-      <c r="B145">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B145" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" t="s">
         <v>85</v>
       </c>
-      <c r="B146">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" t="s">
         <v>93</v>
       </c>
-      <c r="B147">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" t="s">
         <v>82</v>
       </c>
-      <c r="B148">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149" t="s">
         <v>94</v>
       </c>
-      <c r="B149">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" t="s">
         <v>94</v>
       </c>
-      <c r="B150">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" t="s">
         <v>95</v>
       </c>
-      <c r="B151">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B151" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" t="s">
         <v>95</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>158</v>
+      </c>
+      <c r="B163" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>75</v>
+      </c>
+      <c r="B196" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>191</v>
+      </c>
+      <c r="B197" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>194</v>
+      </c>
+      <c r="B200" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>195</v>
+      </c>
+      <c r="B201" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>199</v>
+      </c>
+      <c r="B205" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>96</v>
-      </c>
-      <c r="B153">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>97</v>
-      </c>
-      <c r="B154">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>78</v>
-      </c>
-      <c r="B155">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>98</v>
-      </c>
-      <c r="B156">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>99</v>
-      </c>
-      <c r="B157">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>100</v>
-      </c>
-      <c r="B158">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>101</v>
-      </c>
-      <c r="B159">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>102</v>
-      </c>
-      <c r="B160">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B206" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>201</v>
+      </c>
+      <c r="B207" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>202</v>
+      </c>
+      <c r="B208" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>203</v>
+      </c>
+      <c r="B209" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>205</v>
+      </c>
+      <c r="B211" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>58</v>
+      </c>
+      <c r="B212" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>207</v>
+      </c>
+      <c r="B214" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>54</v>
+      </c>
+      <c r="B216" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>59</v>
+      </c>
+      <c r="B217" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>61</v>
+      </c>
+      <c r="B218" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>209</v>
+      </c>
+      <c r="B223" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>210</v>
+      </c>
+      <c r="B224" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>211</v>
+      </c>
+      <c r="B225" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>212</v>
+      </c>
+      <c r="B227" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>213</v>
+      </c>
+      <c r="B228" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>215</v>
+      </c>
+      <c r="B230" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>216</v>
+      </c>
+      <c r="B231" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>217</v>
+      </c>
+      <c r="B232" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>218</v>
+      </c>
+      <c r="B233" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>219</v>
+      </c>
+      <c r="B234" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>221</v>
+      </c>
+      <c r="B236" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>222</v>
+      </c>
+      <c r="B237" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>223</v>
+      </c>
+      <c r="B238" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>224</v>
+      </c>
+      <c r="B239" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>225</v>
+      </c>
+      <c r="B240" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>226</v>
+      </c>
+      <c r="B241" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>228</v>
+      </c>
+      <c r="B243" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>229</v>
+      </c>
+      <c r="B244" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>230</v>
+      </c>
+      <c r="B245" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>231</v>
+      </c>
+      <c r="B246" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>232</v>
+      </c>
+      <c r="B247" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>233</v>
+      </c>
+      <c r="B248" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B249" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>234</v>
+      </c>
+      <c r="B250" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>235</v>
+      </c>
+      <c r="B251" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>236</v>
+      </c>
+      <c r="B252" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>237</v>
+      </c>
+      <c r="B253" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>239</v>
+      </c>
+      <c r="B255" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>107</v>
+      </c>
+      <c r="B256" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>105</v>
+      </c>
+      <c r="B257" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>240</v>
+      </c>
+      <c r="B258" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>241</v>
+      </c>
+      <c r="B259" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>242</v>
+      </c>
+      <c r="B260" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>243</v>
+      </c>
+      <c r="B261" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>244</v>
+      </c>
+      <c r="B262" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>245</v>
+      </c>
+      <c r="B263" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>246</v>
+      </c>
+      <c r="B264" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>247</v>
+      </c>
+      <c r="B265" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>248</v>
+      </c>
+      <c r="B266" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>249</v>
+      </c>
+      <c r="B267" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>250</v>
+      </c>
+      <c r="B268" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>251</v>
+      </c>
+      <c r="B269" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>252</v>
+      </c>
+      <c r="B270" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>253</v>
+      </c>
+      <c r="B271" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>254</v>
+      </c>
+      <c r="B272" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>255</v>
+      </c>
+      <c r="B273" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
         <v>103</v>
       </c>
-      <c r="B161">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>104</v>
-      </c>
-      <c r="B162">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>105</v>
-      </c>
-      <c r="B163">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>106</v>
-      </c>
-      <c r="B164">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>107</v>
-      </c>
-      <c r="B165">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="B275" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
         <v>108</v>
       </c>
-      <c r="B166">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>109</v>
-      </c>
-      <c r="B167">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="B276" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>257</v>
+      </c>
+      <c r="B277" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>258</v>
+      </c>
+      <c r="B278" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>259</v>
+      </c>
+      <c r="B279" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>260</v>
+      </c>
+      <c r="B280" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>112</v>
+      </c>
+      <c r="B281" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>261</v>
+      </c>
+      <c r="B282" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>262</v>
+      </c>
+      <c r="B283" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>263</v>
+      </c>
+      <c r="B284" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>264</v>
+      </c>
+      <c r="B285" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
         <v>95</v>
       </c>
-      <c r="B168">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="B286" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>265</v>
+      </c>
+      <c r="B287" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>266</v>
+      </c>
+      <c r="B288" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>267</v>
+      </c>
+      <c r="B289" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>268</v>
+      </c>
+      <c r="B290" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>269</v>
+      </c>
+      <c r="B291" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>270</v>
+      </c>
+      <c r="B292" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>111</v>
+      </c>
+      <c r="B293" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
         <v>110</v>
       </c>
-      <c r="B169">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>111</v>
-      </c>
-      <c r="B170">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>112</v>
-      </c>
-      <c r="B171">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>113</v>
-      </c>
-      <c r="B172">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="B294" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>271</v>
+      </c>
+      <c r="B295" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>272</v>
+      </c>
+      <c r="B296" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>83</v>
+      </c>
+      <c r="B297" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>273</v>
+      </c>
+      <c r="B298" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>274</v>
+      </c>
+      <c r="B299" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>275</v>
+      </c>
+      <c r="B300" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>276</v>
+      </c>
+      <c r="B301" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>277</v>
+      </c>
+      <c r="B302" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>278</v>
+      </c>
+      <c r="B303" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>279</v>
+      </c>
+      <c r="B304" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>280</v>
+      </c>
+      <c r="B305" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>281</v>
+      </c>
+      <c r="B306" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>282</v>
+      </c>
+      <c r="B307" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>283</v>
+      </c>
+      <c r="B308" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>284</v>
+      </c>
+      <c r="B309" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>285</v>
+      </c>
+      <c r="B310" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>286</v>
+      </c>
+      <c r="B311" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>287</v>
+      </c>
+      <c r="B312" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>288</v>
+      </c>
+      <c r="B313" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>289</v>
+      </c>
+      <c r="B314" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>290</v>
+      </c>
+      <c r="B315" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>291</v>
+      </c>
+      <c r="B316" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>292</v>
+      </c>
+      <c r="B317" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>293</v>
+      </c>
+      <c r="B318" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>294</v>
+      </c>
+      <c r="B319" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>295</v>
+      </c>
+      <c r="B320" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>296</v>
+      </c>
+      <c r="B321" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>297</v>
+      </c>
+      <c r="B322" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>298</v>
+      </c>
+      <c r="B323" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>299</v>
+      </c>
+      <c r="B324" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
         <v>88</v>
       </c>
-      <c r="B173">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="B325" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
         <v>114</v>
       </c>
-      <c r="B174">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="B326" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
         <v>115</v>
       </c>
-      <c r="B175">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="B327" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
         <v>116</v>
       </c>
-      <c r="B176">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B328" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
         <v>117</v>
       </c>
-      <c r="B177">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B329" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
         <v>118</v>
       </c>
-      <c r="B178">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B330" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
         <v>119</v>
       </c>
-      <c r="B179">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B331" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
         <v>120</v>
       </c>
-      <c r="B180">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B332" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
         <v>121</v>
       </c>
-      <c r="B181">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B333" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
         <v>20</v>
       </c>
-      <c r="B182">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B334" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
         <v>122</v>
       </c>
-      <c r="B183">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B335" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
         <v>123</v>
       </c>
-      <c r="B184">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B336" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
         <v>124</v>
       </c>
-      <c r="B185">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B337" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
         <v>125</v>
       </c>
-      <c r="B186">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B338" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
         <v>126</v>
       </c>
-      <c r="B187">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B339" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
         <v>127</v>
       </c>
-      <c r="B188">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B340" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
         <v>128</v>
       </c>
-      <c r="B189">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B341" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
         <v>129</v>
       </c>
-      <c r="B190">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B342" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
         <v>20</v>
       </c>
-      <c r="B191">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B343" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
         <v>21</v>
       </c>
-      <c r="B192">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B344" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
         <v>130</v>
       </c>
-      <c r="B193">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B345" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
         <v>131</v>
       </c>
-      <c r="B194">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B346" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
         <v>132</v>
       </c>
-      <c r="B195">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B347" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
         <v>133</v>
       </c>
-      <c r="B196">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B348" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
         <v>130</v>
       </c>
-      <c r="B197">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B349" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
         <v>131</v>
       </c>
-      <c r="B198">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B350" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
         <v>132</v>
       </c>
-      <c r="B199">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B351" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
         <v>133</v>
       </c>
-      <c r="B200">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B352" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
         <v>76</v>
       </c>
-      <c r="B201">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="B353" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
         <v>77</v>
       </c>
-      <c r="B202">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="B354" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
         <v>130</v>
       </c>
-      <c r="B203">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="B355" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
         <v>131</v>
       </c>
-      <c r="B204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="B356" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
         <v>132</v>
       </c>
-      <c r="B205">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="B357" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
         <v>133</v>
       </c>
-      <c r="B206">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="B358" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
         <v>20</v>
       </c>
-      <c r="B207">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="B359" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
         <v>21</v>
       </c>
-      <c r="B208">
-        <v>200</v>
+      <c r="B360" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -991,7 +991,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="162">
+  <fills count="210">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1786,246 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1815,7 +2055,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1921,6 +2161,30 @@
     <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5304,7 +5568,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="75">
+      <c r="E2" t="s" s="105">
         <v>5</v>
       </c>
     </row>
@@ -5319,7 +5583,7 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="76">
+      <c r="E3" t="s" s="106">
         <v>18</v>
       </c>
     </row>
@@ -5336,7 +5600,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="77">
+      <c r="E4" t="s" s="107">
         <v>18</v>
       </c>
     </row>
@@ -5353,7 +5617,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="78">
+      <c r="E5" t="s" s="108">
         <v>8</v>
       </c>
     </row>
@@ -5368,7 +5632,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="79">
+      <c r="E6" t="s" s="109">
         <v>18</v>
       </c>
     </row>
@@ -5382,7 +5646,7 @@
       <c r="D7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s" s="80">
+      <c r="E7" t="s" s="110">
         <v>18</v>
       </c>
     </row>
@@ -5396,7 +5660,7 @@
       <c r="D8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" t="s" s="81">
+      <c r="E8" t="s" s="111">
         <v>18</v>
       </c>
     </row>
@@ -5407,7 +5671,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="82">
+      <c r="E9" t="s" s="112">
         <v>16</v>
       </c>
     </row>
@@ -5464,7 +5728,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="83">
+      <c r="E2" t="s" s="120">
         <v>5</v>
       </c>
     </row>
@@ -5479,8 +5743,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="84">
-        <v>18</v>
+      <c r="E3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5496,8 +5760,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="85">
-        <v>18</v>
+      <c r="E4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5513,8 +5777,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="86">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5528,8 +5792,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="87">
-        <v>18</v>
+      <c r="E6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -5540,10 +5804,10 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s" s="88">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5553,8 +5817,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="89">
-        <v>16</v>
+      <c r="E8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="301">
   <si>
     <t>Description</t>
   </si>
@@ -991,7 +991,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="210">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2036,6 +2036,116 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -2055,7 +2165,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2185,6 +2295,17 @@
     <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2512,7 +2633,7 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="90">
+      <c r="E2" t="s" s="127">
         <v>5</v>
       </c>
     </row>
@@ -2527,7 +2648,7 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="91">
+      <c r="E3" t="s" s="128">
         <v>18</v>
       </c>
     </row>
@@ -2544,7 +2665,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="92">
+      <c r="E4" t="s" s="129">
         <v>18</v>
       </c>
     </row>
@@ -2561,7 +2682,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="93">
+      <c r="E5" t="s" s="130">
         <v>8</v>
       </c>
     </row>
@@ -2576,7 +2697,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="94">
+      <c r="E6" t="s" s="131">
         <v>18</v>
       </c>
     </row>
@@ -2591,10 +2712,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" t="s" s="95">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2604,8 +2725,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="96">
-        <v>16</v>
+      <c r="E8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5743,8 +5864,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>141</v>
+      <c r="E3" t="s" s="121">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5760,8 +5881,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>141</v>
+      <c r="E4" t="s" s="122">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5777,8 +5898,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>141</v>
+      <c r="E5" t="s" s="123">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5792,8 +5913,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>141</v>
+      <c r="E6" t="s" s="124">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -5804,10 +5925,10 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="E7" t="s" s="125">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5817,8 +5938,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>141</v>
+      <c r="E8" t="s" s="126">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="304">
   <si>
     <t>Description</t>
   </si>
@@ -931,6 +931,15 @@
   </si>
   <si>
     <t>Status code 200 is 360, Incorrect codes is 0</t>
+  </si>
+  <si>
+    <t>Create a free account - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=28484948899825387982795547692884490805&amp;abreg_ecid=28484948899825387982795547692884490805&amp;transactid=284849488998253879827955476928844908052022-12-26T12%3A50%3A23.662Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=28484948899825387982795547692884490805&amp;abreg_ecid=28484948899825387982795547692884490805&amp;transactid=284849488998253879827955476928844908052022-12-26T12%3A50%3A23.662Z</t>
+  </si>
+  <si>
+    <t>Register - https://business.amazon.com/en/register?ecid=28484948899825387982795547692884490805&amp;abreg_ecid=28484948899825387982795547692884490805</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1000,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="232">
+  <fills count="236">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2146,6 +2155,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -2165,7 +2194,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2306,6 +2335,8 @@
     <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2712,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
+        <v>300</v>
+      </c>
+      <c r="E7" t="s" s="132">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2725,8 +2756,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>141</v>
+      <c r="E8" t="s" s="133">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3357,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="B73" t="n">
         <v>200.0</v>
@@ -3878,7 +3909,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="B142" t="n">
         <v>200.0</v>
@@ -3966,7 +3997,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>303</v>
       </c>
       <c r="B153" t="n">
         <v>200.0</v>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MultipleBroswers\TestCasesinExcell\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94CFCE-A105-4757-A1E6-66DBEFB021F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7ED707-EFB3-40FF-9247-35B187A98B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="headingtag" sheetId="3" r:id="rId3"/>
-    <sheet name="img" sheetId="4" r:id="rId4"/>
+    <sheet name="img" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="headingtag" sheetId="3" r:id="rId4"/>
     <sheet name="Response" sheetId="9" r:id="rId5"/>
+    <sheet name="tags" r:id="rId9" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="361">
   <si>
     <t>Description</t>
   </si>
@@ -467,6 +468,822 @@
   </si>
   <si>
     <t>Status code 200 are: 208 and Incorrect status codes are: 0</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest.]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest.]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report ]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report , Flexible purchasing
+for Financial Services]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report , Flexible purchasing
+for Financial Services, Smarter purchasing for
+Food Service &amp; Hospitality]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report , Flexible purchasing
+for Financial Services, Smarter purchasing for
+Food Service &amp; Hospitality, Simplified sourcing 
+for Industrials]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report , Flexible purchasing
+for Financial Services, Smarter purchasing for
+Food Service &amp; Hospitality, Simplified sourcing 
+for Industrials, Digital procurement 
+for IT organizations]</t>
+  </si>
+  <si>
+    <t>tags is  [You supply the dream.
+We supply the rest., About the Spanish Language Experience, Sign in with business credentials, You supply the dream.
+We supply the rest., Buying that works
+for your industry, Cost-efficient buying
+for Agribusiness, Drive purchasing
+for Automotive, Smarter purchasing for
+Business Products &amp; Services, Simplify purchasing
+for Construction, Sourcing solutions for
+Consumer Products &amp; Services, Procurement solutions
+for the Energy sector, E-Procurement with Amazon Business, Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report , Flexible purchasing
+for Financial Services, Smarter purchasing for
+Food Service &amp; Hospitality, Simplified sourcing 
+for Industrials, Digital procurement 
+for IT organizations, Simplify buying 
+for Materials]</t>
+  </si>
+  <si>
+    <t>h1 tags is  You supply the dream.
+We supply the rest.</t>
+  </si>
+  <si>
+    <t>h1 tags is  About the Spanish Language Experience</t>
+  </si>
+  <si>
+    <t>h1 tags is  Sign in with business credentials</t>
+  </si>
+  <si>
+    <t>h1 tags is  Buying that works
+for your industry</t>
+  </si>
+  <si>
+    <t>h1 tags is  Cost-efficient buying
+for Agribusiness</t>
+  </si>
+  <si>
+    <t>h1 tags is  Drive purchasing
+for Automotive</t>
+  </si>
+  <si>
+    <t>h1 tags is  Smarter purchasing for
+Business Products &amp; Services</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplify purchasing
+for Construction</t>
+  </si>
+  <si>
+    <t>h1 tags is  Sourcing solutions for
+Consumer Products &amp; Services</t>
+  </si>
+  <si>
+    <t>h1 tags is  Procurement solutions
+for the Energy sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Business buyers continue to maintain a preference for omnichannel—and in some cases online only—engagements with suppliers. According to Amazon Business’ 2022 State of Business Procurement Report </t>
+  </si>
+  <si>
+    <t>h1 tags is  Flexible purchasing
+for Financial Services</t>
+  </si>
+  <si>
+    <t>h1 tags is  Smarter purchasing for
+Food Service &amp; Hospitality</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplified sourcing 
+for Industrials</t>
+  </si>
+  <si>
+    <t>h1 tags is  Digital procurement 
+for IT organizations</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplify buying 
+for Materials</t>
+  </si>
+  <si>
+    <t>h1 tags is  Sourcing solutions
+for Power and Utilities</t>
+  </si>
+  <si>
+    <t>h1 tags is  Rethink procurement
+for Real Estate</t>
+  </si>
+  <si>
+    <t>h1 tags is  Manage purchasing for
+Retail &amp; Distribution</t>
+  </si>
+  <si>
+    <t>h1 tags is  Digitize purchasing
+for Telecom &amp; Media</t>
+  </si>
+  <si>
+    <t>h1 tags is  Transportation &amp;
+Logistics purchasing</t>
+  </si>
+  <si>
+    <t>h1 tags is  Welcome to better
+business buying</t>
+  </si>
+  <si>
+    <t>h1 tags is  Drive visibility
+and compliance</t>
+  </si>
+  <si>
+    <t>h1 tags is  Drive procurement agility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Simplify buying 
+for government  </t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplified sourcing 
+for healthcare</t>
+  </si>
+  <si>
+    <t>h1 tags is  Save money and
+achieve your mission</t>
+  </si>
+  <si>
+    <t>h1 tags is  Grow your business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Scalable purchasing
+for dynamic Startups</t>
+  </si>
+  <si>
+    <t>h1 tags is  Empower socially responsible purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Solutions that fit
+your organization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Connect your systems
+to simplify purchasing </t>
+  </si>
+  <si>
+    <t>h1 tags is  Fill operational gaps</t>
+  </si>
+  <si>
+    <t>h1 tags is  Drive purchasing efficiency</t>
+  </si>
+  <si>
+    <t>h1 tags is  Obtain actionable insights to drive purchasing decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Scale buying through compliance
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Optimize cash flow</t>
+  </si>
+  <si>
+    <t>h1 tags is  Purchasing Optimization Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is    Quickly and securely add buyers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Simplify purchasing operations </t>
+  </si>
+  <si>
+    <t>h1 tags is    Enjoy wide selection and business savings</t>
+  </si>
+  <si>
+    <t>h1 tags is  Earth’s largest selection of business supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Discover millions of office products </t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover thousands of IT products</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover a vast selection
+of breakroom supplies</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover a vast selection
+of janitorial and sanitation supplies</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover a vast selection
+of MRO supplies</t>
+  </si>
+  <si>
+    <t>h1 tags is  Buy Restaurant Supplies with Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Browse Popular Professional Medical Supplies on Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover thousands of professional beauty supplies</t>
+  </si>
+  <si>
+    <t>h1 tags is  Find Wholesale Products in the Sizes and Quantities You Need</t>
+  </si>
+  <si>
+    <t>h1 tags is  Bulk Supplies</t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon Business Prime</t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon Business: Shop and Save</t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon Business 4+</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover the Amazon Business App</t>
+  </si>
+  <si>
+    <t>h1 tags is  Lead change in
+purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  </t>
+  </si>
+  <si>
+    <t>h1 tags is  Lead your organization
+to greater savings</t>
+  </si>
+  <si>
+    <t>h1 tags is  Release Notes</t>
+  </si>
+  <si>
+    <t>h1 tags is  The Amazon Business Partner Network</t>
+  </si>
+  <si>
+    <t>h1 tags is  The Amazon Business Pulse</t>
+  </si>
+  <si>
+    <t>h1 tags is  2022 State of Business Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Choose the shipping option that keeps you moving forward </t>
+  </si>
+  <si>
+    <t>h1 tags is  Customer Success Stories</t>
+  </si>
+  <si>
+    <t>h1 tags is  The Office Tex</t>
+  </si>
+  <si>
+    <t>h1 tags is  Sugar Mountain</t>
+  </si>
+  <si>
+    <t>h1 tags is  Reach millions 
+of business customers</t>
+  </si>
+  <si>
+    <t>h1 tags is  The Amazon Business Pulse: Enterprise Edition (December 2022)</t>
+  </si>
+  <si>
+    <t>h1 tags is  The Amazon Business Pulse: Small Business Edition (December 2022)</t>
+  </si>
+  <si>
+    <t>h1 tags is    Invest in your communities by purchasing from local businesses</t>
+  </si>
+  <si>
+    <t>h1 tags is  Shop thousands of products from small and diverse sellers</t>
+  </si>
+  <si>
+    <t>h1 tags is    Discover and purchase more sustainable products</t>
+  </si>
+  <si>
+    <t>h1 tags is  Healthcare is complex,
+buying shouldn't be.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Driving savings for
+behavioral health organizations</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplified procurement
+for long-term care</t>
+  </si>
+  <si>
+    <t>h1 tags is  Transform buying
+for outpatient care</t>
+  </si>
+  <si>
+    <t>h1 tags is  Optimize purchasing
+for specialty healthcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Procurement for Long-Term Care Facilities
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Building a New Model for
+Healthcare Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Digitally transform your childcare business
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Consolidate suppliers and improve the buying experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Empower teachers and staff to focus on the learning mission
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon Business
+for Distance Learning</t>
+  </si>
+  <si>
+    <t>h1 tags is  What is Prime?</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover more insights and
+savings with Business Prime</t>
+  </si>
+  <si>
+    <t>h1 tags is  The difference between
+Prime &amp; Business Prime</t>
+  </si>
+  <si>
+    <t>h1 tags is  Get Instant Customer Feedback with Delighted</t>
+  </si>
+  <si>
+    <t>h1 tags is  Optimal Deployment</t>
+  </si>
+  <si>
+    <t>h1 tags is  Determining Your Return on Investment (ROI) of Business Prime</t>
+  </si>
+  <si>
+    <t>h1 tags is  Spend Visibility
+Built-in Dashboards</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplify purchasing management and put time back in your business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Configure your account to fit your organization</t>
+  </si>
+  <si>
+    <t>h1 tags is  Gain better control over your business accounts</t>
+  </si>
+  <si>
+    <t>h1 tags is  Manage multiple
+Amazon accounts</t>
+  </si>
+  <si>
+    <t>h1 tags is  Reduce security risk and streamline access</t>
+  </si>
+  <si>
+    <t>h1 tags is  Drive compliance</t>
+  </si>
+  <si>
+    <t>h1 tags is  Make tax-exempt purchases</t>
+  </si>
+  <si>
+    <t>h1 tags is    Growth acceleration solutions</t>
+  </si>
+  <si>
+    <t>h1 tags is  Save time and money on business purchases</t>
+  </si>
+  <si>
+    <t>h1 tags is  Manage your delivery experience</t>
+  </si>
+  <si>
+    <t>h1 tags is  Buy through your purchasing system using punchout</t>
+  </si>
+  <si>
+    <t>h1 tags is  Request a purchasing system integration on behalf of your client</t>
+  </si>
+  <si>
+    <t>h1 tags is    Drive intelligent procurement using AI &amp; analytics</t>
+  </si>
+  <si>
+    <t>h1 tags is  Reshape procurement to succeed now and in the future</t>
+  </si>
+  <si>
+    <t>h1 tags is  Cost optimization for procurement:
+Savings for return to work</t>
+  </si>
+  <si>
+    <t>h1 tags is  Top priorities of enterprise procurement leaders</t>
+  </si>
+  <si>
+    <t>h1 tags is  Prepare for the future of purchasing in financial services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is    The Total Economic Impact of Amazon Business and Business Prime 
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is    Trends in procurement: Enabling smart, safe, self-service procurement</t>
+  </si>
+  <si>
+    <t>h1 tags is    Getting started with Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Reshape healthcare procurement to overcome uncertainty</t>
+  </si>
+  <si>
+    <t>h1 tags is  Improve sourcing decisions with intelligent procurement solutions</t>
+  </si>
+  <si>
+    <t>h1 tags is  On-demand webinar: 
+Out of the crisis, into the unknown</t>
+  </si>
+  <si>
+    <t>h1 tags is  Watch this cost savings webinar for nonprofits</t>
+  </si>
+  <si>
+    <t>h1 tags is  Simplify and save time buying for work</t>
+  </si>
+  <si>
+    <t>h1 tags is  Supplier Analysis: Using data to drive decisions</t>
+  </si>
+  <si>
+    <t>h1 tags is    Transforming procurement for power and utilities</t>
+  </si>
+  <si>
+    <t>h1 tags is  Watch Reshape 2021 Event Sessions from Amazon Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Five tips to accelerate savings and growth for your business
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Cost optimization:
+The path to powerful procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Cost optimization: 
+Powerful procurement for public sector
+ </t>
+  </si>
+  <si>
+    <t>h1 tags is  Panel: Moving forward through uncertainty</t>
+  </si>
+  <si>
+    <t>h1 tags is  Intelligent procurement:
+Using AI to drive savings and efficiency</t>
+  </si>
+  <si>
+    <t>h1 tags is  Save money and time with digital purchasing for public sector</t>
+  </si>
+  <si>
+    <t>h1 tags is  Aldevra increases sales 315% using diversity certifications on Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Always Best Care</t>
+  </si>
+  <si>
+    <t>h1 tags is  Berkeley County Schools</t>
+  </si>
+  <si>
+    <t>h1 tags is  Embracing modern, digital approaches to create solutions</t>
+  </si>
+  <si>
+    <t>h1 tags is  Chefs' Toys</t>
+  </si>
+  <si>
+    <t>h1 tags is  Supply chain optimization in remote production regions</t>
+  </si>
+  <si>
+    <t>h1 tags is  Implementing a fully automated Source to Pay (S2P) process</t>
+  </si>
+  <si>
+    <t>h1 tags is  City Of Baltimore</t>
+  </si>
+  <si>
+    <t>h1 tags is  ClickHere2Shop scales to new customers with Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Unique tools uncover new ways to drive efficiencies</t>
+  </si>
+  <si>
+    <t>h1 tags is  How CPO Commerce leaned into Amazon Business to catapult B2B sales 147% year over year</t>
+  </si>
+  <si>
+    <t>h1 tags is  CSAT Solutions</t>
+  </si>
+  <si>
+    <t>h1 tags is  Making an impact with digital solutions</t>
+  </si>
+  <si>
+    <t>h1 tags is  Envision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  ExxonMobil  </t>
+  </si>
+  <si>
+    <t>h1 tags is  Five Star Senior Living</t>
+  </si>
+  <si>
+    <t>h1 tags is  Franklin Creative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Glendale Unified School District  </t>
+  </si>
+  <si>
+    <t>h1 tags is  Granite School District</t>
+  </si>
+  <si>
+    <t>h1 tags is  Leveraging Amazon Business as a matchmaker for bulk orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Intel  </t>
+  </si>
+  <si>
+    <t>h1 tags is  Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>h1 tags is  Jukin Media</t>
+  </si>
+  <si>
+    <t>h1 tags is  Lakota Local Schools</t>
+  </si>
+  <si>
+    <t>h1 tags is  Lippert Components</t>
+  </si>
+  <si>
+    <t>h1 tags is  Mary's Center</t>
+  </si>
+  <si>
+    <t>h1 tags is  NC State</t>
+  </si>
+  <si>
+    <t>h1 tags is  Olive Grove Charter School</t>
+  </si>
+  <si>
+    <t>h1 tags is  Pacific Northwest Business Products</t>
+  </si>
+  <si>
+    <t>h1 tags is  Helping entrepreneurs reduce manual effort and reach their goals</t>
+  </si>
+  <si>
+    <t>h1 tags is  Red River Brewing Company</t>
+  </si>
+  <si>
+    <t>h1 tags is  Saline Area Schools</t>
+  </si>
+  <si>
+    <t>h1 tags is  Seattle Children's Hospital</t>
+  </si>
+  <si>
+    <t>h1 tags is  Shelby County Schools</t>
+  </si>
+  <si>
+    <t>h1 tags is  State of Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  State of Utah </t>
+  </si>
+  <si>
+    <t>h1 tags is  The Third Floor</t>
+  </si>
+  <si>
+    <t>h1 tags is  Toys for Kids</t>
+  </si>
+  <si>
+    <t>h1 tags is  Tracy Unified School District</t>
+  </si>
+  <si>
+    <t>h1 tags is  Managing industrial supply and operations</t>
+  </si>
+  <si>
+    <t>h1 tags is  Uber</t>
+  </si>
+  <si>
+    <t>h1 tags is  University Of Washington</t>
+  </si>
+  <si>
+    <t>h1 tags is  USO</t>
+  </si>
+  <si>
+    <t>h1 tags is  Vacasa</t>
+  </si>
+  <si>
+    <t>h1 tags is  Vari</t>
+  </si>
+  <si>
+    <t>h1 tags is  Improved customer experience</t>
+  </si>
+  <si>
+    <t>h1 tags is  Apply to the Amazon Business Partner Network</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover Amazon Business Partner Solutions to help you reshape buying and move your business forward.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Leverage Ariba Network, the world’s largest digital business network, to connect and buy through Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Leverage Awardco to manage your employee recognition and corporate incentive programs. Let your employees choose rewards from Amazon Business.</t>
+  </si>
+  <si>
+    <t>h1 tags is  BeNeering Marketplace Search offers seamless integration into Amazon Business, with a focus on delivering high-end user experiences for SAP customers</t>
+  </si>
+  <si>
+    <t>h1 tags is  BuyerQuest's procure-to-pay suite, integrated with Amazon Business, offers a streamlined shopping experience and selection to corporate procurement teams.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Use Concur Expense with Amazon Business to automate expense management for Amazon Business purchases and streamline reconciliation.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Coupa Open Buy with Amazon Business offers a seamless shopping experience within the Coupa procurement search bar.</t>
+  </si>
+  <si>
+    <t>h1 tags is  CrossCountry Consulting provides a full range of Business Advisory services, including trained experts in Amazon Business features, benefits, and system integrations.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Emburse, a leading expense management and accounts payable automation company, simplifies corporate card and expense reconciliation on Amazon Business purchases.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Attract new customers and reward your existing ones with millions of gift options using Gift &amp; Go – the new, on-demand gifting technology solution integrated with Amazon Business.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Leverage Infor to buy from Amazon Business using catalog punchout. Amazon Business can send invoices to Infor to help you reconcile transactions.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Ivalua delivers end-to-end spend management solutions integrated with Amazon Business, empowering organizations to unlock the maximum value of procurement.</t>
+  </si>
+  <si>
+    <t>h1 tags is  NRC provides expertise in PeopleSoft to assist Amazon Business customers with integration activities.</t>
+  </si>
+  <si>
+    <t>h1 tags is  OMNIA Partners, a leading purchasing organization, offers public sector organizations access to the Amazon Business contract to streamline purchasing.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Bring Amazon Business into your purchasing system with the innovative Onventis procurement solutions, help reduce rogue buying and assist with achieving maximum efficiency in long-tail spend.</t>
+  </si>
+  <si>
+    <t>h1 tags is  PLANERGY Spend Management with Amazon Business delivers a seamless buying experience with control, spend analysis, and AP Automation.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Precoro’s connection with Amazon Business Punch-in transforms your employee shopping cart into an approval-ready purchase order for a more effortless and compliant corporate purchasing experience.</t>
+  </si>
+  <si>
+    <t>h1 tags is  ProcureDesk supports integration with Amazon Business so you can enjoy a great purchasing experience, and an added compliance for purchases, all without maintaining a catalog.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Reduce manual data entry and easily track Amazon Business purchases directly in QuickBooks Online.</t>
+  </si>
+  <si>
+    <t>h1 tags is  ReactorNet is the creator of EPRO, an industry-leading full procure-to-pay (P2P) solution catering to hospitality, healthcare, and leisure that integrates seamlessly with Amazon Business.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Accessible directly within the Skyward platform, Amazon Business offers a store that makes it easier for teachers to get materials they need into the classroom.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Use SpendBridge to buy from Amazon Business using catalog punchout, and send invoices to SpendBridge to streamline your accounts payable processes.</t>
+  </si>
+  <si>
+    <t>h1 tags is  SupplierGATEWAY is a digital Diversity and Supplier Management platform that enables companies to achieve significant efficiencies and cost savings in their Supplier Engagement, Procurement, Diversity and Inclusion efforts.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Teampay offers a chat-based procurement experience to empower distributed spend management, provide controls and real-time spend visibility, and automate reconciliation.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Tofino and Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Zycus collaborates with Amazon Business to help client organizations realize their procurement digitalization goals through seamless buying processes.</t>
   </si>
 </sst>
 </file>
@@ -535,7 +1352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +1485,33 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -734,12 +1576,32 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="52"/>
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -759,7 +1621,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -805,14 +1667,18 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1100,17 +1966,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +2025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +2042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +2059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +2074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1225,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +2108,1787 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD2E55-F3F8-4B67-BA34-2785A8DD80A7}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0197503E-130F-4F51-BF50-F52FA0066590}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1250,17 +3896,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +3923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +3972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +3989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFC348-A7B7-481F-97A2-90255355BC58}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1384,17 +4030,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="38.6328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="46.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="70.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1424,11 +4070,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="38">
+      <c r="E2" t="s" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1439,11 +4085,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="39">
+      <c r="E3" t="s" s="44">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1456,11 +4102,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="40">
+      <c r="E4" t="s" s="45">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1473,11 +4119,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="41">
+      <c r="E5" t="s" s="46">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1488,11 +4134,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="42">
+      <c r="E6" t="s" s="47">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1505,11 +4151,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="43">
+      <c r="E7" t="s" s="48">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1522,11 +4168,11 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s" s="44">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1539,153 +4185,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD2E55-F3F8-4B67-BA34-2785A8DD80A7}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1693,11 +4192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +4206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +4214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +4222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1729,7 +4230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1737,7 +4238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +4246,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +4254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1761,7 +4262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1769,7 +4270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +4278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1785,7 +4286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1793,7 +4294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1801,7 +4302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +4310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +4318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1825,7 +4326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +4334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +4342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1849,7 +4350,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1857,7 +4358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +4366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1873,7 +4374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1881,7 +4382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +4390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1897,7 +4398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1905,7 +4406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1913,7 +4414,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1921,7 +4422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1929,7 +4430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1937,7 +4438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +4446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +4454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1961,7 +4462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1969,7 +4470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +4478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1985,7 +4486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +4494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2001,7 +4502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +4510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2017,7 +4518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -2025,7 +4526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2033,7 +4534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2041,7 +4542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2049,7 +4550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2057,7 +4558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2065,7 +4566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2073,7 +4574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2081,7 +4582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -2089,7 +4590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2097,7 +4598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2105,7 +4606,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2113,7 +4614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2121,7 +4622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2129,7 +4630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2137,7 +4638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -2145,7 +4646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -2153,7 +4654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -2161,7 +4662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -2169,7 +4670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -2177,7 +4678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -2185,7 +4686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -2193,7 +4694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2201,7 +4702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -2209,7 +4710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2217,7 +4718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -2225,7 +4726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2233,7 +4734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -2241,7 +4742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -2249,7 +4750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -2257,7 +4758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -2265,7 +4766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -2273,7 +4774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -2281,7 +4782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -2289,7 +4790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2297,7 +4798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2305,7 +4806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2313,7 +4814,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +4822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2329,7 +4830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -2337,7 +4838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2345,7 +4846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +4854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -2361,7 +4862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -2369,7 +4870,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -2377,7 +4878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +4886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -2393,7 +4894,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -2401,7 +4902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -2409,7 +4910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +4918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -2425,7 +4926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +4934,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -2441,7 +4942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -2449,7 +4950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +4958,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +4966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>56</v>
       </c>
@@ -2473,7 +4974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -2481,7 +4982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -2489,7 +4990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +4998,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -2505,7 +5006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +5014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>61</v>
       </c>
@@ -2521,7 +5022,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>62</v>
       </c>
@@ -2529,7 +5030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -2537,7 +5038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>64</v>
       </c>
@@ -2545,7 +5046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>65</v>
       </c>
@@ -2553,7 +5054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -2561,7 +5062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>67</v>
       </c>
@@ -2569,7 +5070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -2577,7 +5078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>69</v>
       </c>
@@ -2585,7 +5086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -2593,7 +5094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -2601,7 +5102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -2609,7 +5110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>73</v>
       </c>
@@ -2617,7 +5118,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>74</v>
       </c>
@@ -2625,7 +5126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>75</v>
       </c>
@@ -2633,7 +5134,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +5142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>77</v>
       </c>
@@ -2649,7 +5150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -2657,7 +5158,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -2665,7 +5166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>80</v>
       </c>
@@ -2673,7 +5174,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -2681,7 +5182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -2689,7 +5190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -2697,7 +5198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>84</v>
       </c>
@@ -2705,7 +5206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -2713,7 +5214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>86</v>
       </c>
@@ -2721,7 +5222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>87</v>
       </c>
@@ -2729,7 +5230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -2737,7 +5238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>89</v>
       </c>
@@ -2745,7 +5246,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -2753,7 +5254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>91</v>
       </c>
@@ -2761,7 +5262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -2769,7 +5270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -2777,7 +5278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -2785,7 +5286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +5294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -2801,7 +5302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -2809,7 +5310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>98</v>
       </c>
@@ -2817,7 +5318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -2825,7 +5326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>102</v>
       </c>
@@ -2833,7 +5334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +5342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -2849,7 +5350,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>86</v>
       </c>
@@ -2857,7 +5358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>96</v>
       </c>
@@ -2865,7 +5366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -2873,7 +5374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +5382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>105</v>
       </c>
@@ -2889,7 +5390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -2897,7 +5398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -2905,7 +5406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>106</v>
       </c>
@@ -2913,7 +5414,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>107</v>
       </c>
@@ -2921,7 +5422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>108</v>
       </c>
@@ -2929,7 +5430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -2937,7 +5438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>109</v>
       </c>
@@ -2945,7 +5446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>110</v>
       </c>
@@ -2953,7 +5454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>111</v>
       </c>
@@ -2961,7 +5462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -2969,7 +5470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>113</v>
       </c>
@@ -2977,7 +5478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>114</v>
       </c>
@@ -2985,7 +5486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>115</v>
       </c>
@@ -2993,7 +5494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>116</v>
       </c>
@@ -3001,7 +5502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +5510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -3017,7 +5518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>119</v>
       </c>
@@ -3025,7 +5526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>120</v>
       </c>
@@ -3033,7 +5534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -3041,7 +5542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -3049,7 +5550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>122</v>
       </c>
@@ -3057,7 +5558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -3065,7 +5566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>124</v>
       </c>
@@ -3073,7 +5574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>99</v>
       </c>
@@ -3081,7 +5582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>125</v>
       </c>
@@ -3089,7 +5590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>126</v>
       </c>
@@ -3097,7 +5598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3105,7 +5606,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>128</v>
       </c>
@@ -3113,7 +5614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>129</v>
       </c>
@@ -3121,7 +5622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>130</v>
       </c>
@@ -3129,7 +5630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>131</v>
       </c>
@@ -3137,7 +5638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -3145,7 +5646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -3153,7 +5654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>133</v>
       </c>
@@ -3161,7 +5662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>134</v>
       </c>
@@ -3169,7 +5670,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>135</v>
       </c>
@@ -3177,7 +5678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>136</v>
       </c>
@@ -3185,7 +5686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>137</v>
       </c>
@@ -3193,7 +5694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>138</v>
       </c>
@@ -3201,7 +5702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>139</v>
       </c>
@@ -3209,7 +5710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>140</v>
       </c>
@@ -3217,7 +5718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -3225,7 +5726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -3233,7 +5734,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>141</v>
       </c>
@@ -3241,7 +5742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>142</v>
       </c>
@@ -3249,7 +5750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>143</v>
       </c>
@@ -3257,7 +5758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -3265,7 +5766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>141</v>
       </c>
@@ -3273,7 +5774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>142</v>
       </c>
@@ -3281,7 +5782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>143</v>
       </c>
@@ -3289,7 +5790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -3297,7 +5798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>87</v>
       </c>
@@ -3305,7 +5806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>88</v>
       </c>
@@ -3313,7 +5814,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>141</v>
       </c>
@@ -3321,7 +5822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>142</v>
       </c>
@@ -3329,7 +5830,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>143</v>
       </c>
@@ -3337,7 +5838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>144</v>
       </c>
@@ -3345,7 +5846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -3353,7 +5854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>32</v>
       </c>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="370">
   <si>
     <t>Description</t>
   </si>
@@ -1284,6 +1284,36 @@
   </si>
   <si>
     <t>h1 tags is  Zycus collaborates with Amazon Business to help client organizations realize their procurement digitalization goals through seamless buying processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Amazon Business 
+Worldwide Careers </t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon.com Privacy Notice</t>
+  </si>
+  <si>
+    <t>h1 tags is  Streamline bulk purchasing of PPE, medical and 
+COVID-19 supplies for work.</t>
+  </si>
+  <si>
+    <t>h1 tags is  Sitemap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 tags is  Vereinfachen Sie Ihren
+Unternehmenseinkauf </t>
+  </si>
+  <si>
+    <t>h1 tags is  La tienda online para empresas y autónomos</t>
+  </si>
+  <si>
+    <t>h1 tags is  Discover Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Amazon Business</t>
+  </si>
+  <si>
+    <t>h1 tags is  Join LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,6 +1634,26 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1621,7 +1671,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1679,6 +1729,8 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3736,6 +3788,186 @@
         <v>360</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4165,11 +4397,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
+      <c r="D8"/>
+      <c r="E8" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,8 +4409,8 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
+      <c r="E9" t="s" s="50">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60386D-7B2E-4284-9A38-30358E7A39F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F20292-7B72-4A3D-B712-5DCB64185FC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,11 @@
     <sheet name="headingtag" sheetId="3" r:id="rId4"/>
     <sheet name="Response" sheetId="9" r:id="rId5"/>
     <sheet name="tags" sheetId="10" r:id="rId6"/>
+    <sheet name="image" r:id="rId10" sheetId="11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="357">
   <si>
     <t>Description</t>
   </si>
@@ -87,9 +88,6 @@
   </si>
   <si>
     <t>//meta[@property='og:image']</t>
-  </si>
-  <si>
-    <t>Total no of og:image Available: 1</t>
   </si>
   <si>
     <t>verify that image data is avaiable In meta</t>
@@ -1108,13 +1106,47 @@
   </si>
   <si>
     <t>Missing h1tag count is:  11</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Total no of og:image Available: 1</t>
+  </si>
+  <si>
+    <t>This page og:image not avialable</t>
+  </si>
+  <si>
+    <t>links is https://www.amazon.com/business/register/org/landing?ref_=b2b_mcs_L1_regnav&amp;ecid=50748727836100361451516702509736341830&amp;abreg_ecid=50748727836100361451516702509736341830&amp;transactid=507487278361003614515167025097363418302022-12-28T12%3A09%3A41.442Z</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/register?ecid=50748727836100361451516702509736341830&amp;abreg_ecid=50748727836100361451516702509736341830</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/sell</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/discover-more/newsletters/enterprise</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/discover-more/newsletters/small-business</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/social-responsibility/buy-local</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/social-responsibility/supplier-diversity</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/social-responsibility/sustainability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,47 +1207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1298,6 +1295,81 @@
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1315,7 +1387,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1334,6 +1406,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1341,30 +1415,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1654,12 +1729,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,7 +1767,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1707,7 +1782,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1724,7 +1799,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1733,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -1741,7 +1816,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1756,13 +1831,13 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -1771,9 +1846,9 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1784,13 +1859,1418 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>349</v>
+      </c>
+      <c r="B142" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>264</v>
+      </c>
+      <c r="B156" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>352</v>
+      </c>
+      <c r="B159" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>356</v>
+      </c>
+      <c r="B164" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1799,17 +3279,17 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1842,7 +3322,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s" s="35">
         <v>5</v>
       </c>
     </row>
@@ -1857,7 +3337,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s" s="36">
         <v>17</v>
       </c>
     </row>
@@ -1874,7 +3354,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" t="s" s="37">
         <v>17</v>
       </c>
     </row>
@@ -1882,8 +3362,8 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>20</v>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -1891,7 +3371,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" t="s" s="38">
         <v>8</v>
       </c>
     </row>
@@ -1906,22 +3386,25 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" t="s" s="39">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1931,8 +3414,8 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
+      <c r="E8" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1951,12 +3434,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7265625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="20" width="17.7265625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1972,7 +3455,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2012,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -2020,7 +3503,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -2049,12 +3532,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="70.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="70.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2087,7 +3570,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2102,7 +3585,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2119,7 +3602,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2128,7 +3611,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -2136,7 +3619,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2151,7 +3634,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2162,30 +3645,30 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2196,7 +3679,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2217,7 +3700,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>200</v>
@@ -2225,7 +3708,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -2233,7 +3716,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2241,7 +3724,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -2249,7 +3732,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -2257,7 +3740,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -2265,7 +3748,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -2273,7 +3756,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -2281,7 +3764,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -2289,7 +3772,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -2297,7 +3780,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -2305,7 +3788,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -2313,7 +3796,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -2321,7 +3804,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -2329,7 +3812,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -2337,7 +3820,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -2345,7 +3828,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -2353,7 +3836,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -2361,7 +3844,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -2369,7 +3852,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -2377,7 +3860,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -2385,7 +3868,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -2393,7 +3876,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -2401,7 +3884,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -2409,7 +3892,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -2417,7 +3900,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -2425,7 +3908,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -2433,7 +3916,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -2441,7 +3924,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -2449,7 +3932,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -2457,7 +3940,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -2465,7 +3948,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -2473,7 +3956,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -2481,7 +3964,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -2489,7 +3972,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -2497,7 +3980,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -2505,7 +3988,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -2513,7 +3996,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -2521,7 +4004,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -2529,7 +4012,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -2537,7 +4020,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -2545,7 +4028,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -2553,7 +4036,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -2561,7 +4044,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -2569,7 +4052,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -2577,7 +4060,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -2585,7 +4068,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -2593,7 +4076,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>200</v>
@@ -2601,7 +4084,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -2609,7 +4092,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -2617,7 +4100,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -2625,7 +4108,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>200</v>
@@ -2633,7 +4116,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>200</v>
@@ -2641,7 +4124,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>200</v>
@@ -2649,7 +4132,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>200</v>
@@ -2657,7 +4140,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>200</v>
@@ -2665,7 +4148,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>200</v>
@@ -2673,7 +4156,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>200</v>
@@ -2681,7 +4164,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>200</v>
@@ -2689,7 +4172,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>200</v>
@@ -2697,7 +4180,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>200</v>
@@ -2705,7 +4188,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>200</v>
@@ -2713,7 +4196,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>200</v>
@@ -2721,7 +4204,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>200</v>
@@ -2729,7 +4212,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>200</v>
@@ -2737,7 +4220,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>200</v>
@@ -2745,7 +4228,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>200</v>
@@ -2753,7 +4236,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>200</v>
@@ -2761,7 +4244,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>200</v>
@@ -2769,7 +4252,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>200</v>
@@ -2777,7 +4260,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>200</v>
@@ -2785,7 +4268,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>200</v>
@@ -2793,7 +4276,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>200</v>
@@ -2801,7 +4284,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <v>200</v>
@@ -2809,7 +4292,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <v>200</v>
@@ -2817,7 +4300,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76">
         <v>200</v>
@@ -2825,7 +4308,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77">
         <v>200</v>
@@ -2833,7 +4316,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78">
         <v>200</v>
@@ -2841,7 +4324,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79">
         <v>200</v>
@@ -2849,7 +4332,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B80">
         <v>200</v>
@@ -2857,7 +4340,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81">
         <v>200</v>
@@ -2865,7 +4348,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82">
         <v>200</v>
@@ -2873,7 +4356,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83">
         <v>200</v>
@@ -2881,7 +4364,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84">
         <v>200</v>
@@ -2889,7 +4372,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85">
         <v>200</v>
@@ -2897,7 +4380,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86">
         <v>200</v>
@@ -2905,7 +4388,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87">
         <v>200</v>
@@ -2913,7 +4396,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>200</v>
@@ -2921,7 +4404,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89">
         <v>200</v>
@@ -2929,7 +4412,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B90">
         <v>200</v>
@@ -2937,7 +4420,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91">
         <v>200</v>
@@ -2945,7 +4428,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>200</v>
@@ -2953,7 +4436,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93">
         <v>200</v>
@@ -2961,7 +4444,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94">
         <v>200</v>
@@ -2969,7 +4452,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95">
         <v>200</v>
@@ -2977,7 +4460,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96">
         <v>200</v>
@@ -2985,7 +4468,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97">
         <v>200</v>
@@ -2993,7 +4476,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>200</v>
@@ -3001,7 +4484,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99">
         <v>200</v>
@@ -3009,7 +4492,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B100">
         <v>200</v>
@@ -3017,7 +4500,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B101">
         <v>200</v>
@@ -3025,7 +4508,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102">
         <v>200</v>
@@ -3033,7 +4516,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>200</v>
@@ -3041,7 +4524,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B104">
         <v>200</v>
@@ -3049,7 +4532,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105">
         <v>200</v>
@@ -3057,7 +4540,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -3065,7 +4548,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B107">
         <v>200</v>
@@ -3073,7 +4556,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B108">
         <v>200</v>
@@ -3081,7 +4564,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109">
         <v>200</v>
@@ -3089,7 +4572,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B110">
         <v>200</v>
@@ -3097,7 +4580,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B111">
         <v>200</v>
@@ -3105,7 +4588,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B112">
         <v>200</v>
@@ -3113,7 +4596,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B113">
         <v>200</v>
@@ -3121,7 +4604,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114">
         <v>200</v>
@@ -3129,7 +4612,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B115">
         <v>200</v>
@@ -3137,7 +4620,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B116">
         <v>200</v>
@@ -3145,7 +4628,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B117">
         <v>200</v>
@@ -3153,7 +4636,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B118">
         <v>200</v>
@@ -3161,7 +4644,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119">
         <v>200</v>
@@ -3169,7 +4652,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120">
         <v>200</v>
@@ -3177,7 +4660,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121">
         <v>200</v>
@@ -3185,7 +4668,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122">
         <v>200</v>
@@ -3193,7 +4676,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123">
         <v>200</v>
@@ -3201,7 +4684,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124">
         <v>200</v>
@@ -3209,7 +4692,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>200</v>
@@ -3217,7 +4700,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B126">
         <v>200</v>
@@ -3225,7 +4708,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B127">
         <v>200</v>
@@ -3233,7 +4716,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128">
         <v>200</v>
@@ -3241,7 +4724,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B129">
         <v>200</v>
@@ -3249,7 +4732,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B130">
         <v>200</v>
@@ -3257,7 +4740,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B131">
         <v>200</v>
@@ -3265,7 +4748,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B132">
         <v>200</v>
@@ -3273,7 +4756,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B133">
         <v>200</v>
@@ -3281,7 +4764,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B134">
         <v>200</v>
@@ -3289,7 +4772,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B135">
         <v>200</v>
@@ -3297,7 +4780,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B136">
         <v>200</v>
@@ -3305,7 +4788,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B137">
         <v>200</v>
@@ -3313,7 +4796,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B138">
         <v>200</v>
@@ -3321,7 +4804,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B139">
         <v>200</v>
@@ -3329,7 +4812,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B140">
         <v>200</v>
@@ -3337,7 +4820,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141">
         <v>200</v>
@@ -3345,7 +4828,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B142">
         <v>200</v>
@@ -3353,7 +4836,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B143">
         <v>200</v>
@@ -3361,7 +4844,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144">
         <v>200</v>
@@ -3369,7 +4852,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145">
         <v>200</v>
@@ -3377,7 +4860,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B146">
         <v>200</v>
@@ -3385,7 +4868,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B147">
         <v>200</v>
@@ -3393,7 +4876,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B148">
         <v>200</v>
@@ -3401,7 +4884,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B149">
         <v>200</v>
@@ -3409,7 +4892,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B150">
         <v>200</v>
@@ -3417,7 +4900,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B151">
         <v>200</v>
@@ -3425,7 +4908,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B152">
         <v>200</v>
@@ -3433,7 +4916,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B153">
         <v>200</v>
@@ -3441,7 +4924,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B154">
         <v>200</v>
@@ -3449,7 +4932,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155">
         <v>200</v>
@@ -3457,7 +4940,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B156">
         <v>200</v>
@@ -3465,7 +4948,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157">
         <v>200</v>
@@ -3473,7 +4956,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B158">
         <v>200</v>
@@ -3481,7 +4964,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B159">
         <v>200</v>
@@ -3489,7 +4972,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B160">
         <v>200</v>
@@ -3497,7 +4980,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B161">
         <v>200</v>
@@ -3505,7 +4988,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B162">
         <v>200</v>
@@ -3513,7 +4996,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B163">
         <v>200</v>
@@ -3521,7 +5004,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B164">
         <v>200</v>
@@ -3529,7 +5012,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B165">
         <v>200</v>
@@ -3537,7 +5020,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B166">
         <v>200</v>
@@ -3545,7 +5028,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B167">
         <v>200</v>
@@ -3553,7 +5036,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B168">
         <v>200</v>
@@ -3561,7 +5044,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B169">
         <v>200</v>
@@ -3569,7 +5052,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B170">
         <v>200</v>
@@ -3577,7 +5060,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B171">
         <v>200</v>
@@ -3585,7 +5068,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B172">
         <v>200</v>
@@ -3593,7 +5076,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B173">
         <v>200</v>
@@ -3601,7 +5084,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B174">
         <v>200</v>
@@ -3609,7 +5092,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B175">
         <v>200</v>
@@ -3617,7 +5100,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B176">
         <v>200</v>
@@ -3625,7 +5108,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B177">
         <v>200</v>
@@ -3633,7 +5116,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B178">
         <v>200</v>
@@ -3641,7 +5124,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B179">
         <v>200</v>
@@ -3649,7 +5132,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B180">
         <v>200</v>
@@ -3657,7 +5140,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B181">
         <v>200</v>
@@ -3665,7 +5148,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B182">
         <v>200</v>
@@ -3673,7 +5156,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B183">
         <v>200</v>
@@ -3681,7 +5164,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B184">
         <v>200</v>
@@ -3689,7 +5172,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B185">
         <v>200</v>
@@ -3697,7 +5180,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B186">
         <v>200</v>
@@ -3705,7 +5188,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B187">
         <v>200</v>
@@ -3713,7 +5196,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B188">
         <v>200</v>
@@ -3721,7 +5204,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B189">
         <v>200</v>
@@ -3729,7 +5212,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B190">
         <v>200</v>
@@ -3737,7 +5220,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B191">
         <v>200</v>
@@ -3745,7 +5228,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B192">
         <v>200</v>
@@ -3753,7 +5236,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B193">
         <v>200</v>
@@ -3761,7 +5244,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B194">
         <v>200</v>
@@ -3769,7 +5252,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B195">
         <v>200</v>
@@ -3777,7 +5260,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B196">
         <v>200</v>
@@ -3785,7 +5268,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B197">
         <v>200</v>
@@ -3793,7 +5276,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B198">
         <v>200</v>
@@ -3801,7 +5284,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B199">
         <v>200</v>
@@ -3809,7 +5292,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B200">
         <v>200</v>
@@ -3817,7 +5300,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B201">
         <v>200</v>
@@ -3825,7 +5308,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B202">
         <v>200</v>
@@ -3833,7 +5316,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B203">
         <v>200</v>
@@ -3841,7 +5324,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B204">
         <v>200</v>
@@ -3849,7 +5332,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B205">
         <v>200</v>
@@ -3857,7 +5340,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B206">
         <v>200</v>
@@ -3865,7 +5348,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207">
         <v>200</v>
@@ -3873,7 +5356,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B208">
         <v>200</v>
@@ -3888,1679 +5371,1679 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.08984375" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="61.36328125" style="28" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7265625" style="28"/>
+    <col min="1" max="1" customWidth="true" style="21" width="46.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="61.36328125" collapsed="true"/>
+    <col min="3" max="16384" style="21" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="B5" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A81" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A129" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A159" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A165" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A170" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A174" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A179" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B182" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+      <c r="B192" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A201" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
+    </row>
+    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="28" t="s">
+    </row>
+    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B206" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A129" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B142" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B144" s="28" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B145" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B146" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B150" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B152" s="28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B153" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B154" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A155" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B156" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A159" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="B161" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="B162" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="B163" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B165" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A168" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B169" s="28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B174" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="B175" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="B176" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="B177" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="B178" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A179" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="B179" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B180" s="28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B181" s="28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="28" t="s">
+    </row>
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B182" s="28" t="s">
+    </row>
+    <row r="208" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="B183" s="28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="B184" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="B185" s="28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B186" s="28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="B187" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="B188" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="B189" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="B190" s="28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B191" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="28" t="s">
+      <c r="B208" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="B192" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B193" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B194" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B195" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B196" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B197" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B199" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B200" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A201" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B201" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B202" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B203" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B204" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B205" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A206" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B206" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B207" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B208" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Amazon/amazon.xlsx
+++ b/TestCasesinExcell/Amazon/amazon.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="372">
   <si>
     <t>Description</t>
   </si>
@@ -1139,6 +1139,51 @@
   </si>
   <si>
     <t>links is https://business.amazon.com/en/social-responsibility/sustainability</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/commercial/media-telecom</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/acute-care</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/behavioral-care</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/long-term-care</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/outpatient-care</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/specialty-care</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/long-term-care/ebook-2021</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/healthcare/model-for-healthcare-procurement-ebook</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/education/early-childhood-education</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/education/higher-education</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/education/k-12</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/work-with-us/education/distance-learning</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/find-solutions/business-prime/about-prime</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/find-solutions/business-prime/business-prime-for-small-businesses</t>
+  </si>
+  <si>
+    <t>links is https://business.amazon.com/en/find-solutions/business-prime/differences-between-prime</t>
   </si>
 </sst>
 </file>
@@ -3269,6 +3314,206 @@
         <v>348</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>192</v>
+      </c>
+      <c r="B179" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>367</v>
+      </c>
+      <c r="B190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>368</v>
+      </c>
+      <c r="B191" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>369</v>
+      </c>
+      <c r="B197" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>370</v>
+      </c>
+      <c r="B198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
